--- a/data/voted_laws_migration.xlsx
+++ b/data/voted_laws_migration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e8b233dcb308e1e/Dokumente/_Masterstudium/Thesis/Thesis_db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{0FD23916-4D40-4BAF-BE90-2C0AFE70B237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B552CBDF-679B-4869-A55E-80C8B62ED34F}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{0FD23916-4D40-4BAF-BE90-2C0AFE70B237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ED80BF4-FC5C-413F-89CE-40E3B4FF1389}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2240" yWindow="2010" windowWidth="10540" windowHeight="9130" xr2:uid="{1ED53B26-0918-43D7-A511-99BD0BF912A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1ED53B26-0918-43D7-A511-99BD0BF912A4}"/>
   </bookViews>
   <sheets>
     <sheet name="voted_laws_migration" sheetId="1" r:id="rId1"/>
@@ -2416,6 +2416,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2733,10 +2737,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEDA577-CCB7-4000-9CAF-F6213670DC84}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J57" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -2891,7 +2894,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="2" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>836</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>882</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2836</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8730</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9885</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10709</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>12409</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12415</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12524</v>
       </c>
@@ -4619,7 +4622,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="14" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1562</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1606</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:49" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1753</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>863</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>565</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4085</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2274</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2275</v>
       </c>
@@ -5700,7 +5703,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2276</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>342</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>348</v>
       </c>
@@ -6105,7 +6108,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>376</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4704</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4844</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>545</v>
       </c>
@@ -6659,7 +6662,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4824</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3855</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3856</v>
       </c>
@@ -7061,7 +7064,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3877</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>383</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="35" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4106</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4048</v>
       </c>
@@ -7749,7 +7752,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="37" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4252</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4075</v>
       </c>
@@ -8020,7 +8023,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5110</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4981</v>
       </c>
@@ -8288,7 +8291,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4756</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>27</v>
       </c>
@@ -8562,7 +8565,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>628</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>961</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="45" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1098</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="46" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2064</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="47" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2102</v>
       </c>
@@ -9268,7 +9271,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="48" spans="1:54" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2292</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2517</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3049</v>
       </c>
@@ -9679,7 +9682,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="51" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3257</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="52" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3631</v>
       </c>
@@ -9953,7 +9956,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="53" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3632</v>
       </c>
@@ -10090,7 +10093,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>4260</v>
       </c>
@@ -10227,7 +10230,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4531</v>
       </c>
@@ -10364,7 +10367,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="56" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5347</v>
       </c>
@@ -10501,7 +10504,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="57" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5349</v>
       </c>
@@ -10638,7 +10641,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="58" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5350</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="59" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5351</v>
       </c>
@@ -10912,7 +10915,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="60" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5353</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="61" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5602</v>
       </c>
@@ -11186,7 +11189,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="62" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5657</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>6050</v>
       </c>
@@ -11460,7 +11463,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>6223</v>
       </c>
@@ -11597,7 +11600,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="65" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>6334</v>
       </c>
@@ -11734,7 +11737,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="66" spans="1:47" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>6336</v>
       </c>
@@ -11872,13 +11875,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BB66" xr:uid="{1CEDA577-CCB7-4000-9CAF-F6213670DC84}">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="-"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BB66" xr:uid="{1CEDA577-CCB7-4000-9CAF-F6213670DC84}"/>
   <hyperlinks>
     <hyperlink ref="M6" r:id="rId1" xr:uid="{5B4ACEF9-C4E2-4ED6-9D2F-6CBBC741E675}"/>
     <hyperlink ref="M7" r:id="rId2" xr:uid="{5D23ED15-DD14-41B5-8095-580124C72ABD}"/>
